--- a/src/main/resources/static/js/customerExcel.xlsx
+++ b/src/main/resources/static/js/customerExcel.xlsx
@@ -14,30 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>顾客编码(不可重复！)（必填）</t>
+  </si>
+  <si>
+    <t>顾客名字（必填）</t>
+  </si>
+  <si>
+    <t>电话（必填）</t>
+  </si>
+  <si>
+    <t>所属水厂ID（必填）</t>
+  </si>
+  <si>
+    <t>身份证（必填）</t>
+  </si>
+  <si>
+    <t>住址(必填)</t>
+  </si>
+  <si>
+    <t>所属价格ID</t>
+  </si>
+  <si>
+    <t>所属水表ID</t>
+  </si>
+  <si>
+    <t>所属片区ID</t>
+  </si>
+  <si>
+    <t>所属营业厅ID</t>
+  </si>
+  <si>
+    <t>座机</t>
+  </si>
+  <si>
+    <t>所属表册ID</t>
+  </si>
+  <si>
+    <t>1112</t>
   </si>
   <si>
     <t>124Name</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>127Name</t>
+  </si>
+  <si>
+    <t>128Name</t>
+  </si>
+  <si>
+    <t>129Name</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>125Name</t>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
-    <t>125Name</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>130Name</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>126Name</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>126Name</t>
+    <t>131Name</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>127</t>
   </si>
 </sst>
 </file>
@@ -45,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,77 +126,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,9 +148,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,11 +215,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,23 +246,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +278,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -224,175 +338,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +487,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -436,17 +526,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,54 +584,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,53 +1087,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/js/customerExcel.xlsx
+++ b/src/main/resources/static/js/customerExcel.xlsx
@@ -34,10 +34,10 @@
     <t>住址(必填)</t>
   </si>
   <si>
-    <t>所属价格ID</t>
-  </si>
-  <si>
-    <t>所属水表ID</t>
+    <t>所属价格ID(必填)</t>
+  </si>
+  <si>
+    <t>所属水表ID(必填)</t>
   </si>
   <si>
     <t>所属片区ID</t>
@@ -70,40 +70,40 @@
     <t>128Name</t>
   </si>
   <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>125Name</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>129Name</t>
   </si>
   <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>125Name</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>126Name</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
   <si>
     <t>130Name</t>
   </si>
   <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>126Name</t>
-  </si>
-  <si>
-    <t>126</t>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>127</t>
   </si>
   <si>
     <t>131Name</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>127</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +184,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -148,81 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,30 +247,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +278,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,6 +296,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,13 +368,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,37 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,103 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,11 +487,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +532,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,15 +557,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,31 +584,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1101,8 +1101,8 @@
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="12" max="12" width="11.25" customWidth="1"/>
@@ -1173,29 +1173,27 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
@@ -1205,29 +1203,27 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
@@ -1237,20 +1233,18 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
@@ -1259,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>15</v>
@@ -1269,9 +1263,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
   </sheetData>
